--- a/loctest.xlsx
+++ b/loctest.xlsx
@@ -57,13 +57,13 @@
     <t>Hallo</t>
   </si>
   <si>
-    <t>Auf weidersehen</t>
-  </si>
-  <si>
     <t>こんにちは</t>
   </si>
   <si>
     <t>さようなら</t>
+  </si>
+  <si>
+    <t>TEST HERE</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -499,10 +499,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
